--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_GPSGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_GPSGlobal.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VNETGPS\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang3\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang3\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916A8B61-CC51-4BEA-B108-3F26E48A1191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOP-1" sheetId="41" r:id="rId1"/>
@@ -37,7 +36,7 @@
     <definedName name="_xlnm.Criteria" localSheetId="6">TongThang!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">'TOP-1'!$S$4:$S$51</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -301,11 +300,68 @@
   <si>
     <t>lock : 027.000.012.023,09008</t>
   </si>
+  <si>
+    <t>027.000.012.023,09008</t>
+  </si>
+  <si>
+    <t>Lock: 027.000.012.023,09008</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn</t>
+  </si>
+  <si>
+    <t>Thay tụ lọc nguồn</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>NG, NCFW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>112.213.085.066,09008</t>
+  </si>
+  <si>
+    <t>Kiểm tra lại dịch vụ trên server</t>
+  </si>
+  <si>
+    <t>GPS,NCFW</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>Cấu hình lại thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>MCH,NCFW</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.120617</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
@@ -702,30 +758,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -743,6 +775,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -840,23 +896,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -892,23 +931,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1084,11 +1106,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1120,43 +1142,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1201,58 +1223,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1277,23 +1299,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1341,7 +1363,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1353,26 +1375,52 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="61">
+        <v>44643</v>
+      </c>
       <c r="C7" s="61"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="D7" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="38">
+        <v>868183038596727</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>92</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1401,7 +1449,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1430,7 +1478,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1459,7 +1507,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1488,7 +1536,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1517,7 +1565,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1548,7 +1596,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1577,7 +1625,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1606,7 +1654,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1635,7 +1683,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1817,7 +1865,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -1998,7 +2046,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -2222,7 +2270,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2286,7 +2334,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2865,6 +2913,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2876,13 +2931,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2890,11 +2938,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2926,43 +2974,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -3007,58 +3055,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3083,23 +3131,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3114,26 +3162,44 @@
         <v>44</v>
       </c>
       <c r="E6" s="38">
-        <v>868183038596727</v>
+        <v>868183037804312</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="53"/>
+      <c r="H6" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>90</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="K6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3153,13 +3219,15 @@
         <v>44</v>
       </c>
       <c r="E7" s="38">
-        <v>868183037804312</v>
+        <v>868183034615620</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="I7" s="53"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -3172,7 +3240,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3190,28 +3258,44 @@
         <v>44</v>
       </c>
       <c r="E8" s="38">
-        <v>868183034615620</v>
+        <v>868183034700174</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>87</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3229,7 +3313,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="38">
-        <v>868183034700174</v>
+        <v>868183034810957</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37" t="s">
@@ -3248,7 +3332,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3266,16 +3350,20 @@
         <v>44</v>
       </c>
       <c r="E10" s="38">
-        <v>868183034810957</v>
+        <v>868183035860480</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37" t="s">
         <v>65</v>
       </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="53"/>
+      <c r="I10" s="53" t="s">
+        <v>80</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
       <c r="N10" s="1"/>
@@ -3285,7 +3373,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3303,20 +3391,16 @@
         <v>44</v>
       </c>
       <c r="E11" s="38">
-        <v>868183035860480</v>
+        <v>868183034806625</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37" t="s">
         <v>65</v>
       </c>
       <c r="H11" s="37"/>
-      <c r="I11" s="53" t="s">
-        <v>80</v>
-      </c>
+      <c r="I11" s="53"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="K11" s="1"/>
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
       <c r="N11" s="1"/>
@@ -3326,7 +3410,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3344,7 +3428,7 @@
         <v>44</v>
       </c>
       <c r="E12" s="38">
-        <v>868183034806625</v>
+        <v>868183034783378</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37" t="s">
@@ -3363,7 +3447,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3383,13 +3467,15 @@
         <v>44</v>
       </c>
       <c r="E13" s="38">
-        <v>868183034783378</v>
+        <v>868183034609508</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="37"/>
+      <c r="H13" s="37" t="s">
+        <v>67</v>
+      </c>
       <c r="I13" s="53"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -3402,7 +3488,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3420,15 +3506,13 @@
         <v>44</v>
       </c>
       <c r="E14" s="38">
-        <v>868183034609508</v>
+        <v>868183034678362</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="37" t="s">
-        <v>67</v>
-      </c>
+      <c r="H14" s="37"/>
       <c r="I14" s="53"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -3441,7 +3525,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3459,13 +3543,15 @@
         <v>44</v>
       </c>
       <c r="E15" s="38">
-        <v>868183034678362</v>
+        <v>868183034554902</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="37"/>
+      <c r="H15" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="I15" s="53"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -3478,7 +3564,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3488,23 +3574,13 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="61">
-        <v>44643</v>
-      </c>
+      <c r="B16" s="61"/>
       <c r="C16" s="61"/>
-      <c r="D16" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="38">
-        <v>868183034554902</v>
-      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="37"/>
-      <c r="G16" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>68</v>
-      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="53"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3517,7 +3593,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3635,7 +3711,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -3699,7 +3775,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -3912,7 +3988,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -4104,7 +4180,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4168,7 +4244,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4747,13 +4823,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4765,6 +4834,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4772,7 +4848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4808,43 +4884,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -4889,58 +4965,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -4965,23 +5041,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5017,7 +5093,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5048,7 +5124,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5077,7 +5153,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5106,7 +5182,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5135,7 +5211,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5164,7 +5240,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5193,7 +5269,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5224,7 +5300,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5253,7 +5329,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5282,7 +5358,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5311,7 +5387,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6541,6 +6617,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6552,13 +6635,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6566,11 +6642,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6602,43 +6678,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -6683,58 +6759,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -6759,23 +6835,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6809,7 +6885,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6848,7 +6924,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6885,7 +6961,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6922,7 +6998,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6959,7 +7035,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6996,7 +7072,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7033,7 +7109,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7072,7 +7148,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7109,7 +7185,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7146,7 +7222,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7183,7 +7259,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7373,7 +7449,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -7396,9 +7472,13 @@
         <v>65</v>
       </c>
       <c r="H22" s="9"/>
-      <c r="I22" s="53"/>
+      <c r="I22" s="53" t="s">
+        <v>82</v>
+      </c>
       <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="K22" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -7413,7 +7493,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -7436,16 +7516,30 @@
         <v>65</v>
       </c>
       <c r="H23" s="9"/>
-      <c r="I23" s="53"/>
+      <c r="I23" s="53" t="s">
+        <v>82</v>
+      </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="9"/>
+      <c r="K23" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
+      <c r="M23" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="N23" s="9"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="9"/>
+      <c r="O23" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="S23" s="3"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
@@ -7471,16 +7565,34 @@
         <v>65</v>
       </c>
       <c r="H24" s="9"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="I24" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="N24" s="9"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="9"/>
+      <c r="O24" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="S24" s="3"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
@@ -7738,7 +7850,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -7834,7 +7946,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -7866,7 +7978,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -7898,7 +8010,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -8477,6 +8589,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8488,13 +8607,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8502,7 +8614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -8538,43 +8650,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -8619,58 +8731,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -8695,23 +8807,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8747,7 +8859,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8778,7 +8890,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8807,7 +8919,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8836,7 +8948,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8865,7 +8977,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8894,7 +9006,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8923,7 +9035,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8954,7 +9066,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8983,7 +9095,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9012,7 +9124,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9041,7 +9153,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10271,6 +10383,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10282,13 +10401,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10296,7 +10408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -10332,43 +10444,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -10413,58 +10525,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -10489,23 +10601,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10539,7 +10651,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10578,7 +10690,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10615,7 +10727,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10652,7 +10764,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10689,7 +10801,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10726,7 +10838,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10763,7 +10875,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10802,7 +10914,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10839,7 +10951,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10868,7 +10980,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10897,7 +11009,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12127,6 +12239,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12138,13 +12257,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12152,7 +12264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -12188,43 +12300,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -12269,58 +12381,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -12345,23 +12457,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="74"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
       <c r="P5" s="80"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="73"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12387,7 +12499,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12418,7 +12530,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12447,7 +12559,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12476,7 +12588,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12505,7 +12617,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12534,7 +12646,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12563,7 +12675,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12594,7 +12706,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12623,7 +12735,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12652,7 +12764,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12681,7 +12793,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13912,6 +14024,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13923,13 +14042,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_GPSGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_GPSGlobal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang3\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang3\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="122">
   <si>
     <t>STT</t>
   </si>
@@ -356,6 +356,72 @@
   </si>
   <si>
     <t>SE.3.00.---01.120617</t>
+  </si>
+  <si>
+    <t>p01.livegps.vn,07102</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi GPS</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>Không thuộc diện bảo hành</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Thiết bị oxi hóa</t>
+  </si>
+  <si>
+    <t>Không khắc phục được</t>
+  </si>
+  <si>
+    <t>Thiết bị không thuộc diện bảo hành</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn, hỏng nhiều linh kiện</t>
+  </si>
+  <si>
+    <t>SE.2.03.---23.111215</t>
+  </si>
+  <si>
+    <t>Thiết bị mất cấu hình</t>
+  </si>
+  <si>
+    <t>Set lại cấu hình, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>MCH, NCFW</t>
+  </si>
+  <si>
+    <t>Thiết bị thuộc đại lý khác</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi mạch</t>
+  </si>
+  <si>
+    <t>`PC</t>
+  </si>
+  <si>
+    <t>SE.4.00.---02.190820</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GPS</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>SE.4.00.---05.200416</t>
   </si>
 </sst>
 </file>
@@ -1109,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1351,7 +1417,9 @@
         <v>77</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
+      <c r="O6" s="39" t="s">
+        <v>85</v>
+      </c>
       <c r="P6" s="1" t="s">
         <v>78</v>
       </c>
@@ -2942,7 +3010,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3232,12 +3300,22 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>104</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
       <c r="U7" s="75"/>
@@ -3320,16 +3398,32 @@
         <v>65</v>
       </c>
       <c r="H9" s="37"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="I9" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
       <c r="U9" s="75"/>
@@ -3364,13 +3458,25 @@
       <c r="K10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="L10" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
       <c r="U10" s="75"/>
@@ -3398,16 +3504,32 @@
         <v>65</v>
       </c>
       <c r="H11" s="37"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="1"/>
+      <c r="I11" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="L11" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
       <c r="U11" s="75"/>
@@ -3436,15 +3558,27 @@
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="53"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="M12" s="39" t="s">
+        <v>107</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
+      <c r="O12" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
       <c r="U12" s="74" t="s">
@@ -3480,12 +3614,22 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="M13" s="39" t="s">
+        <v>104</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
+      <c r="O13" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
       <c r="U13" s="75"/>
@@ -3513,16 +3657,30 @@
         <v>65</v>
       </c>
       <c r="H14" s="37"/>
-      <c r="I14" s="53"/>
+      <c r="I14" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="L14" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="37"/>
+      <c r="O14" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
       <c r="U14" s="75"/>
@@ -3556,12 +3714,22 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="M15" s="39" t="s">
+        <v>104</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="37"/>
+      <c r="O15" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
       <c r="U15" s="75"/>
@@ -3711,7 +3879,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -3743,7 +3911,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4052,7 +4220,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4180,7 +4348,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4212,7 +4380,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -4244,7 +4412,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4362,7 +4530,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -4851,8 +5019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5085,12 +5253,22 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
       <c r="U6" s="74" t="s">
@@ -5505,7 +5683,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -6006,7 +6184,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -6038,7 +6216,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6156,7 +6334,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -6645,8 +6823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6873,11 +7051,21 @@
         <v>65</v>
       </c>
       <c r="H6" s="48"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="I6" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>119</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39"/>
       <c r="P6" s="1"/>
@@ -6913,15 +7101,31 @@
       </c>
       <c r="H7" s="48"/>
       <c r="I7" s="53"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="J7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>112</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>113</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
       <c r="U7" s="75"/>
@@ -6950,15 +7154,27 @@
       </c>
       <c r="H8" s="48"/>
       <c r="I8" s="53"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>107</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
       <c r="U8" s="75"/>
@@ -6986,9 +7202,13 @@
         <v>65</v>
       </c>
       <c r="H9" s="48"/>
-      <c r="I9" s="53"/>
+      <c r="I9" s="53" t="s">
+        <v>90</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
       <c r="N9" s="1"/>
@@ -7022,17 +7242,37 @@
       <c r="G10" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="H10" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>104</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
       <c r="U10" s="75"/>
@@ -7060,9 +7300,13 @@
         <v>65</v>
       </c>
       <c r="H11" s="48"/>
-      <c r="I11" s="53"/>
+      <c r="I11" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
       <c r="N11" s="1"/>
@@ -7097,16 +7341,30 @@
         <v>65</v>
       </c>
       <c r="H12" s="48"/>
-      <c r="I12" s="53"/>
+      <c r="I12" s="53" t="s">
+        <v>90</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="L12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
+      <c r="O12" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
       <c r="U12" s="74" t="s">
@@ -7136,9 +7394,13 @@
         <v>65</v>
       </c>
       <c r="H13" s="48"/>
-      <c r="I13" s="53"/>
+      <c r="I13" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
       <c r="N13" s="1"/>
@@ -7318,16 +7580,30 @@
         <v>65</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="53"/>
+      <c r="I18" s="53" t="s">
+        <v>96</v>
+      </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="9"/>
+      <c r="M18" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="9"/>
+      <c r="O18" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -7396,12 +7672,22 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="9"/>
+      <c r="O20" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
@@ -7409,7 +7695,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -7449,7 +7735,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -7754,7 +8040,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -7818,7 +8104,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -7850,7 +8136,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -7946,7 +8232,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -7978,7 +8264,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -8010,7 +8296,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -8128,7 +8414,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -8617,8 +8903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:H6"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8851,12 +9137,22 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
       <c r="U6" s="74" t="s">
@@ -9271,7 +9567,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -9772,7 +10068,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -9804,7 +10100,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -9922,7 +10218,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -10412,7 +10708,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_GPSGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_GPSGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TOP-1" sheetId="41" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="129">
   <si>
     <t>STT</t>
   </si>
@@ -422,6 +422,27 @@
   </si>
   <si>
     <t>SE.4.00.---05.200416</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>027.000.012.023,09004</t>
+  </si>
+  <si>
+    <t>B.2.12</t>
+  </si>
+  <si>
+    <t>X.3.0.0.00042.250815</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15555</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>X.3.0.0.00041.250815</t>
   </si>
 </sst>
 </file>
@@ -824,6 +845,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -841,30 +886,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1208,43 +1229,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1289,58 +1310,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1365,23 +1386,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1431,7 +1452,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1488,7 +1509,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1517,7 +1538,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1546,7 +1567,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1575,7 +1596,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1604,7 +1625,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1633,7 +1654,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1664,7 +1685,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1693,7 +1714,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1722,7 +1743,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1751,7 +1772,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2981,13 +3002,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2999,6 +3013,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3042,43 +3063,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -3123,58 +3144,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3199,23 +3220,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3267,7 +3288,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3318,7 +3339,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3373,7 +3394,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3426,7 +3447,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3479,7 +3500,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3532,7 +3553,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3581,7 +3602,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3632,7 +3653,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3683,7 +3704,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3732,7 +3753,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3761,7 +3782,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4991,6 +5012,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5002,13 +5030,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5052,43 +5073,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -5133,58 +5154,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -5209,23 +5230,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5271,7 +5292,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5302,7 +5323,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5331,7 +5352,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5360,7 +5381,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5389,7 +5410,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5418,7 +5439,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5447,7 +5468,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5478,7 +5499,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5507,7 +5528,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5536,7 +5557,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5565,7 +5586,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6795,13 +6816,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6813,6 +6827,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6823,8 +6844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showZeros="0" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6856,43 +6877,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -6937,58 +6958,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -7013,23 +7034,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7073,7 +7094,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -7128,7 +7149,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7177,7 +7198,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7218,7 +7239,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7275,7 +7296,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7316,7 +7337,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7367,7 +7388,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7410,7 +7431,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7447,7 +7468,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7484,7 +7505,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7521,7 +7542,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8875,13 +8896,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8893,6 +8907,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8936,43 +8957,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -9017,58 +9038,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -9093,23 +9114,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9155,7 +9176,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -9186,7 +9207,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -9215,7 +9236,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -9244,7 +9265,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -9273,7 +9294,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -9302,7 +9323,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9331,7 +9352,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9362,7 +9383,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9391,7 +9412,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9420,7 +9441,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9449,7 +9470,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10679,13 +10700,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10697,6 +10711,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10707,8 +10728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10740,43 +10761,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -10821,58 +10842,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -10897,23 +10918,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10947,7 +10968,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10967,17 +10988,21 @@
         <v>73</v>
       </c>
       <c r="E7" s="38">
-        <v>862118027452645</v>
+        <v>863306020480767</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="53"/>
+      <c r="I7" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="39"/>
+      <c r="K7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="1"/>
       <c r="M7" s="39"/>
       <c r="N7" s="1"/>
       <c r="O7" s="39"/>
@@ -10986,7 +11011,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11011,10 +11036,16 @@
         <v>65</v>
       </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="1"/>
+      <c r="I8" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="39"/>
+      <c r="L8" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="M8" s="39"/>
       <c r="N8" s="1"/>
       <c r="O8" s="39"/>
@@ -11023,7 +11054,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11060,7 +11091,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11085,10 +11116,16 @@
         <v>65</v>
       </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="53"/>
+      <c r="I10" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="39"/>
+      <c r="K10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="M10" s="39"/>
       <c r="N10" s="1"/>
       <c r="O10" s="39"/>
@@ -11097,7 +11134,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11134,7 +11171,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11162,7 +11199,7 @@
       <c r="I12" s="53"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="39"/>
       <c r="N12" s="1"/>
       <c r="O12" s="39"/>
@@ -11171,7 +11208,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11197,11 +11234,19 @@
       <c r="G13" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="53"/>
+      <c r="H13" s="37">
+        <v>1679793690</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>123</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
+      <c r="K13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="M13" s="39"/>
       <c r="N13" s="1"/>
       <c r="O13" s="39"/>
@@ -11210,7 +11255,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11235,9 +11280,13 @@
         <v>65</v>
       </c>
       <c r="H14" s="37"/>
-      <c r="I14" s="53"/>
+      <c r="I14" s="53" t="s">
+        <v>90</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="L14" s="39"/>
       <c r="M14" s="39"/>
       <c r="N14" s="1"/>
@@ -11247,7 +11296,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11276,7 +11325,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11305,7 +11354,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12535,13 +12584,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12553,6 +12595,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12596,43 +12645,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -12677,58 +12726,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -12753,23 +12802,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="74"/>
       <c r="P5" s="80"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12795,7 +12844,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12826,7 +12875,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12855,7 +12904,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12884,7 +12933,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12913,7 +12962,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12942,7 +12991,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12971,7 +13020,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13002,7 +13051,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13031,7 +13080,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13060,7 +13109,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13089,7 +13138,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14320,13 +14369,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14338,6 +14380,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_GPSGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_GPSGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOP-1" sheetId="41" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="130">
   <si>
     <t>STT</t>
   </si>
@@ -444,6 +444,9 @@
   <si>
     <t>X.3.0.0.00041.250815</t>
   </si>
+  <si>
+    <t>X.3.0.0</t>
+  </si>
 </sst>
 </file>
 
@@ -648,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -888,6 +891,9 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1197,7 +1203,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1412,7 +1418,9 @@
       <c r="B6" s="61">
         <v>44643</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44664</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>64</v>
       </c>
@@ -1467,7 +1475,9 @@
       <c r="B7" s="61">
         <v>44643</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44664</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>64</v>
       </c>
@@ -3030,8 +3040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3246,11 +3256,13 @@
       <c r="B6" s="61">
         <v>44643</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44664</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="81">
         <v>868183037804312</v>
       </c>
       <c r="F6" s="37"/>
@@ -3307,7 +3319,7 @@
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="81">
         <v>868183034615620</v>
       </c>
       <c r="F7" s="37"/>
@@ -3352,11 +3364,13 @@
       <c r="B8" s="61">
         <v>44643</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44664</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="81">
         <v>868183034700174</v>
       </c>
       <c r="F8" s="37"/>
@@ -3407,11 +3421,13 @@
       <c r="B9" s="61">
         <v>44643</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="61">
+        <v>44664</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="81">
         <v>868183034810957</v>
       </c>
       <c r="F9" s="37"/>
@@ -3460,11 +3476,13 @@
       <c r="B10" s="61">
         <v>44643</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="61">
+        <v>44664</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="81">
         <v>868183035860480</v>
       </c>
       <c r="F10" s="37"/>
@@ -3513,11 +3531,13 @@
       <c r="B11" s="61">
         <v>44643</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="61">
+        <v>44664</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="81">
         <v>868183034806625</v>
       </c>
       <c r="F11" s="37"/>
@@ -3570,7 +3590,7 @@
       <c r="D12" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="81">
         <v>868183034783378</v>
       </c>
       <c r="F12" s="37"/>
@@ -3621,7 +3641,7 @@
       <c r="D13" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="81">
         <v>868183034609508</v>
       </c>
       <c r="F13" s="37"/>
@@ -3666,11 +3686,13 @@
       <c r="B14" s="61">
         <v>44643</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="61">
+        <v>44664</v>
+      </c>
       <c r="D14" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="81">
         <v>868183034678362</v>
       </c>
       <c r="F14" s="37"/>
@@ -5040,8 +5062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6844,8 +6866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView showZeros="0" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7109,7 +7131,9 @@
       <c r="B7" s="61">
         <v>44615</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44664</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>69</v>
       </c>
@@ -7211,7 +7235,9 @@
       <c r="B9" s="61">
         <v>44615</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="61">
+        <v>44664</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>69</v>
       </c>
@@ -7231,12 +7257,22 @@
         <v>93</v>
       </c>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="M9" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
       <c r="U9" s="67"/>
@@ -7309,7 +7345,9 @@
       <c r="B11" s="61">
         <v>44615</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="61">
+        <v>44664</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>69</v>
       </c>
@@ -7350,7 +7388,9 @@
       <c r="B12" s="61">
         <v>44615</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="61">
+        <v>44664</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>69</v>
       </c>
@@ -7589,7 +7629,9 @@
       <c r="B18" s="61">
         <v>44615</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="61">
+        <v>44664</v>
+      </c>
       <c r="D18" s="37" t="s">
         <v>69</v>
       </c>
@@ -7716,7 +7758,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -7756,7 +7798,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -7767,7 +7809,9 @@
       <c r="B22" s="61">
         <v>44615</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="61">
+        <v>44664</v>
+      </c>
       <c r="D22" s="37" t="s">
         <v>69</v>
       </c>
@@ -7786,13 +7830,25 @@
       <c r="K22" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="9"/>
+      <c r="L22" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="N22" s="9"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="9"/>
+      <c r="O22" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="13"/>
       <c r="U22" s="9" t="s">
@@ -7811,7 +7867,9 @@
       <c r="B23" s="61">
         <v>44615</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="61">
+        <v>44664</v>
+      </c>
       <c r="D23" s="37" t="s">
         <v>69</v>
       </c>
@@ -7860,7 +7918,9 @@
       <c r="B24" s="61">
         <v>44615</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="61">
+        <v>44664</v>
+      </c>
       <c r="D24" s="37" t="s">
         <v>69</v>
       </c>
@@ -8253,7 +8313,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -8285,7 +8345,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -8317,7 +8377,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -8925,7 +8985,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10728,8 +10788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="A19:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11196,9 +11256,13 @@
         <v>65</v>
       </c>
       <c r="H12" s="37"/>
-      <c r="I12" s="53"/>
+      <c r="I12" s="53" t="s">
+        <v>123</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="39"/>
       <c r="N12" s="1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_GPSGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_GPSGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOP-1" sheetId="41" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="139">
   <si>
     <t>STT</t>
   </si>
@@ -446,6 +446,33 @@
   </si>
   <si>
     <t>X.3.0.0</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim+FW</t>
+  </si>
+  <si>
+    <t>NCFW, LK</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>SE.2.03.---25.111215</t>
+  </si>
+  <si>
+    <t>124.158.005.014,16870</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.181017</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GSM</t>
+  </si>
+  <si>
+    <t>SE.2.03.---21.111215</t>
   </si>
 </sst>
 </file>
@@ -848,29 +875,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -890,10 +896,31 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1203,7 +1230,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1235,43 +1262,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1316,58 +1343,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1392,23 +1419,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1460,7 +1487,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1519,7 +1546,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1548,7 +1575,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1577,7 +1604,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1606,7 +1633,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1635,7 +1662,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1664,7 +1691,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1695,7 +1722,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1724,7 +1751,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1753,7 +1780,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1782,7 +1809,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3012,6 +3039,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3023,13 +3057,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3040,8 +3067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3073,43 +3100,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -3154,58 +3181,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3230,23 +3257,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3262,7 +3289,7 @@
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="66">
         <v>868183037804312</v>
       </c>
       <c r="F6" s="37"/>
@@ -3300,7 +3327,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3319,7 +3346,7 @@
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="66">
         <v>868183034615620</v>
       </c>
       <c r="F7" s="37"/>
@@ -3351,7 +3378,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3370,7 +3397,7 @@
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="81">
+      <c r="E8" s="66">
         <v>868183034700174</v>
       </c>
       <c r="F8" s="37"/>
@@ -3408,7 +3435,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3427,7 +3454,7 @@
       <c r="D9" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="66">
         <v>868183034810957</v>
       </c>
       <c r="F9" s="37"/>
@@ -3463,7 +3490,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3482,7 +3509,7 @@
       <c r="D10" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="81">
+      <c r="E10" s="66">
         <v>868183035860480</v>
       </c>
       <c r="F10" s="37"/>
@@ -3518,7 +3545,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3537,7 +3564,7 @@
       <c r="D11" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E11" s="66">
         <v>868183034806625</v>
       </c>
       <c r="F11" s="37"/>
@@ -3573,7 +3600,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3590,7 +3617,7 @@
       <c r="D12" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E12" s="66">
         <v>868183034783378</v>
       </c>
       <c r="F12" s="37"/>
@@ -3622,7 +3649,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3641,7 +3668,7 @@
       <c r="D13" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="81">
+      <c r="E13" s="66">
         <v>868183034609508</v>
       </c>
       <c r="F13" s="37"/>
@@ -3673,7 +3700,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3692,7 +3719,7 @@
       <c r="D14" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="66">
         <v>868183034678362</v>
       </c>
       <c r="F14" s="37"/>
@@ -3726,7 +3753,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3775,7 +3802,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3804,7 +3831,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5034,13 +5061,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5052,6 +5072,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5062,8 +5089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5095,43 +5122,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -5176,58 +5203,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -5252,23 +5279,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5289,32 +5316,38 @@
       <c r="G6" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="L6" s="39"/>
       <c r="M6" s="39" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>103</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="R6" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="T6" s="64"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5345,7 +5378,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5374,7 +5407,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5403,7 +5436,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5432,7 +5465,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5461,7 +5494,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5490,7 +5523,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5521,7 +5554,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5550,7 +5583,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5579,7 +5612,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5608,7 +5641,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5726,7 +5759,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -5790,7 +5823,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -6067,7 +6100,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -6195,7 +6228,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -6227,7 +6260,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -6259,7 +6292,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6377,7 +6410,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -6838,6 +6871,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6849,13 +6889,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6866,8 +6899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="C3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6899,43 +6932,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -6980,58 +7013,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -7056,23 +7089,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7116,7 +7149,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -7173,7 +7206,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7222,7 +7255,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7275,7 +7308,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7332,7 +7365,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7375,7 +7408,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7428,7 +7461,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7462,16 +7495,28 @@
       <c r="K13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="L13" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
+      <c r="O13" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7508,7 +7553,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7533,10 +7578,16 @@
         <v>65</v>
       </c>
       <c r="H15" s="48"/>
-      <c r="I15" s="53"/>
+      <c r="I15" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
+      <c r="K15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="M15" s="39"/>
       <c r="N15" s="1"/>
       <c r="O15" s="39"/>
@@ -7545,7 +7596,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7570,11 +7621,21 @@
         <v>65</v>
       </c>
       <c r="H16" s="37"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="I16" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>119</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="39"/>
       <c r="P16" s="1"/>
@@ -7582,7 +7643,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7607,10 +7668,21 @@
         <v>65</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="39"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="39"/>
+      <c r="I17" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>119</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="39"/>
       <c r="P17" s="1"/>
@@ -7692,16 +7764,32 @@
         <v>65</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="53"/>
+      <c r="I19" s="53" t="s">
+        <v>135</v>
+      </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N19" s="40"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="37"/>
+      <c r="O19" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
       <c r="U19" s="65" t="s">
@@ -7731,10 +7819,14 @@
         <v>65</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="53"/>
+      <c r="I20" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="L20" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="M20" s="1" t="s">
         <v>115</v>
       </c>
@@ -7758,7 +7850,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -7782,15 +7874,27 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="53"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="9"/>
+      <c r="O21" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="S21" s="3"/>
       <c r="T21" s="13"/>
       <c r="U21" s="9" t="s">
@@ -7798,7 +7902,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -8185,7 +8289,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -8313,7 +8417,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -8377,7 +8481,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -8495,7 +8599,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -8730,7 +8834,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -8956,6 +9060,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8967,13 +9078,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9017,43 +9121,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -9098,58 +9202,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -9174,23 +9278,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9236,7 +9340,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -9267,7 +9371,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -9296,7 +9400,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -9325,7 +9429,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -9354,7 +9458,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -9383,7 +9487,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9412,7 +9516,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9443,7 +9547,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9472,7 +9576,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9501,7 +9605,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9530,7 +9634,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10760,6 +10864,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10771,13 +10882,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10821,43 +10925,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -10902,58 +11006,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -10978,23 +11082,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11028,7 +11132,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -11071,7 +11175,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11114,7 +11218,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11151,7 +11255,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11194,7 +11298,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11231,7 +11335,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11272,7 +11376,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11319,7 +11423,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11360,7 +11464,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11389,7 +11493,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11418,7 +11522,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12648,6 +12752,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12659,13 +12770,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12709,43 +12813,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -12790,58 +12894,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -12866,23 +12970,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12908,7 +13012,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12939,7 +13043,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12968,7 +13072,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12997,7 +13101,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13026,7 +13130,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13055,7 +13159,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13084,7 +13188,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13115,7 +13219,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13144,7 +13248,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13173,7 +13277,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13202,7 +13306,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14433,6 +14537,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14444,13 +14555,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_GPSGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_GPSGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TOP-1" sheetId="41" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="139">
   <si>
     <t>STT</t>
   </si>
@@ -415,9 +415,6 @@
     <t>Thiết bị lỗi module GPS</t>
   </si>
   <si>
-    <t>BG</t>
-  </si>
-  <si>
     <t>Thiết bị hoạt động bình thường</t>
   </si>
   <si>
@@ -473,6 +470,9 @@
   </si>
   <si>
     <t>SE.2.03.---21.111215</t>
+  </si>
+  <si>
+    <t>Khách không sửa chữa</t>
   </si>
 </sst>
 </file>
@@ -878,6 +878,30 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -895,30 +919,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1262,43 +1262,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1343,58 +1343,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1419,23 +1419,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1575,7 +1575,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1633,7 +1633,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1722,7 +1722,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1751,7 +1751,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1780,7 +1780,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3039,13 +3039,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3057,6 +3050,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3068,7 +3068,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:J7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3100,43 +3100,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -3181,58 +3181,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3257,23 +3257,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3342,7 +3342,9 @@
       <c r="B7" s="61">
         <v>44643</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44679</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -3378,7 +3380,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3435,7 +3437,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3490,7 +3492,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3545,7 +3547,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3600,7 +3602,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3613,7 +3615,9 @@
       <c r="B12" s="61">
         <v>44643</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="61">
+        <v>44679</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>44</v>
       </c>
@@ -3649,7 +3653,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3664,7 +3668,9 @@
       <c r="B13" s="61">
         <v>44643</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="61">
+        <v>44679</v>
+      </c>
       <c r="D13" s="37" t="s">
         <v>44</v>
       </c>
@@ -3700,7 +3706,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3753,7 +3759,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3766,7 +3772,9 @@
       <c r="B15" s="61">
         <v>44643</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="61">
+        <v>44679</v>
+      </c>
       <c r="D15" s="37" t="s">
         <v>44</v>
       </c>
@@ -3802,7 +3810,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3831,7 +3839,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5061,6 +5069,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5072,13 +5087,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5089,8 +5097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5122,43 +5130,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -5203,58 +5211,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -5279,23 +5287,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5305,7 +5313,9 @@
       <c r="B6" s="61">
         <v>44643</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44679</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>70</v>
       </c>
@@ -5324,11 +5334,11 @@
         <v>101</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L6" s="39"/>
       <c r="M6" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
@@ -5341,13 +5351,13 @@
         <v>88</v>
       </c>
       <c r="R6" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="T6" s="64"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5378,7 +5388,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5407,7 +5417,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5436,7 +5446,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5465,7 +5475,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5494,7 +5504,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5523,7 +5533,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5554,7 +5564,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5583,7 +5593,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5612,7 +5622,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5641,7 +5651,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6871,13 +6881,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6889,6 +6892,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6899,8 +6909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6932,43 +6942,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -7013,58 +7023,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -7089,23 +7099,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7115,7 +7125,9 @@
       <c r="B6" s="61">
         <v>44615</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44679</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>69</v>
       </c>
@@ -7140,16 +7152,24 @@
         <v>93</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -7206,7 +7226,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7219,7 +7239,9 @@
       <c r="B8" s="61">
         <v>44615</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44679</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>69</v>
       </c>
@@ -7255,7 +7277,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7308,7 +7330,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7321,7 +7343,9 @@
       <c r="B10" s="61">
         <v>44615</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="61">
+        <v>44679</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>69</v>
       </c>
@@ -7365,7 +7389,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7408,7 +7432,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7444,7 +7468,7 @@
         <v>93</v>
       </c>
       <c r="M12" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="39" t="s">
@@ -7461,7 +7485,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7476,7 +7500,9 @@
       <c r="B13" s="61">
         <v>44615</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="61">
+        <v>44679</v>
+      </c>
       <c r="D13" s="37" t="s">
         <v>69</v>
       </c>
@@ -7493,7 +7519,7 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L13" s="39" t="s">
         <v>93</v>
@@ -7516,7 +7542,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7529,7 +7555,9 @@
       <c r="B14" s="61">
         <v>44615</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="61">
+        <v>44679</v>
+      </c>
       <c r="D14" s="37" t="s">
         <v>69</v>
       </c>
@@ -7541,19 +7569,33 @@
         <v>65</v>
       </c>
       <c r="H14" s="48"/>
-      <c r="I14" s="53"/>
+      <c r="I14" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="L14" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="37"/>
+      <c r="O14" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7566,7 +7608,9 @@
       <c r="B15" s="61">
         <v>44615</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="61">
+        <v>44679</v>
+      </c>
       <c r="D15" s="37" t="s">
         <v>69</v>
       </c>
@@ -7583,20 +7627,30 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M15" s="39"/>
+      <c r="M15" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="37"/>
+      <c r="O15" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7609,7 +7663,9 @@
       <c r="B16" s="61">
         <v>44615</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="61">
+        <v>44679</v>
+      </c>
       <c r="D16" s="37" t="s">
         <v>69</v>
       </c>
@@ -7625,7 +7681,7 @@
         <v>81</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>95</v>
@@ -7634,16 +7690,24 @@
         <v>93</v>
       </c>
       <c r="M16" s="39" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="37"/>
+      <c r="O16" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7656,7 +7720,9 @@
       <c r="B17" s="61">
         <v>44615</v>
       </c>
-      <c r="C17" s="61"/>
+      <c r="C17" s="61">
+        <v>44679</v>
+      </c>
       <c r="D17" s="37" t="s">
         <v>69</v>
       </c>
@@ -7675,19 +7741,27 @@
         <v>118</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>93</v>
       </c>
       <c r="M17" s="39" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="37"/>
+      <c r="O17" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
       <c r="U17" s="64"/>
@@ -7752,7 +7826,9 @@
       <c r="B19" s="61">
         <v>44615</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="61">
+        <v>44679</v>
+      </c>
       <c r="D19" s="37" t="s">
         <v>69</v>
       </c>
@@ -7765,11 +7841,11 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>93</v>
@@ -7807,7 +7883,9 @@
       <c r="B20" s="61">
         <v>44615</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="61">
+        <v>44679</v>
+      </c>
       <c r="D20" s="37" t="s">
         <v>69</v>
       </c>
@@ -7850,7 +7928,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -7861,7 +7939,9 @@
       <c r="B21" s="61">
         <v>44615</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="61">
+        <v>44679</v>
+      </c>
       <c r="D21" s="37" t="s">
         <v>69</v>
       </c>
@@ -7902,7 +7982,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -8161,7 +8241,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -8193,7 +8273,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -8417,7 +8497,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -8481,7 +8561,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -8599,7 +8679,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -9060,13 +9140,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9078,6 +9151,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9088,8 +9168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9121,43 +9201,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -9202,58 +9282,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -9278,23 +9358,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9304,7 +9384,9 @@
       <c r="B6" s="61">
         <v>44643</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44679</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>72</v>
       </c>
@@ -9340,7 +9422,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -9371,7 +9453,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -9400,7 +9482,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -9429,7 +9511,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -9458,7 +9540,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -9487,7 +9569,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9516,7 +9598,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9547,7 +9629,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9576,7 +9658,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9605,7 +9687,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9634,7 +9716,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10864,13 +10946,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10882,6 +10957,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10892,8 +10974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="A19:I22"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10925,43 +11007,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -11006,58 +11088,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -11082,23 +11164,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11108,7 +11190,9 @@
       <c r="B6" s="61">
         <v>44643</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44679</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>73</v>
       </c>
@@ -11124,15 +11208,25 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -11147,7 +11241,9 @@
       <c r="B7" s="61">
         <v>44643</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44679</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>73</v>
       </c>
@@ -11164,18 +11260,28 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11188,7 +11294,9 @@
       <c r="B8" s="61">
         <v>44643</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44679</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>73</v>
       </c>
@@ -11201,24 +11309,34 @@
       </c>
       <c r="H8" s="37"/>
       <c r="I8" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M8" s="39"/>
+        <v>121</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11231,7 +11349,9 @@
       <c r="B9" s="61">
         <v>44643</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="61">
+        <v>44679</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>73</v>
       </c>
@@ -11247,15 +11367,25 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11268,7 +11398,9 @@
       <c r="B10" s="61">
         <v>44643</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="61">
+        <v>44679</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>73</v>
       </c>
@@ -11285,20 +11417,30 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" s="39"/>
+        <v>121</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11311,7 +11453,9 @@
       <c r="B11" s="61">
         <v>44643</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="61">
+        <v>44679</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>73</v>
       </c>
@@ -11327,15 +11471,25 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="M11" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11348,7 +11502,9 @@
       <c r="B12" s="61">
         <v>44643</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="61">
+        <v>44679</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>73</v>
       </c>
@@ -11361,22 +11517,32 @@
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="39"/>
+      <c r="M12" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
+      <c r="O12" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11391,7 +11557,9 @@
       <c r="B13" s="61">
         <v>44643</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="61">
+        <v>44679</v>
+      </c>
       <c r="D13" s="37" t="s">
         <v>73</v>
       </c>
@@ -11406,24 +11574,34 @@
         <v>1679793690</v>
       </c>
       <c r="I13" s="53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M13" s="39"/>
+        <v>121</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
+      <c r="O13" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11436,7 +11614,9 @@
       <c r="B14" s="61">
         <v>44643</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="61">
+        <v>44679</v>
+      </c>
       <c r="D14" s="37" t="s">
         <v>73</v>
       </c>
@@ -11453,18 +11633,28 @@
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="M14" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="37"/>
+      <c r="O14" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11493,7 +11683,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11522,7 +11712,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -11640,7 +11830,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -12109,7 +12299,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -12173,7 +12363,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -12752,13 +12942,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12770,6 +12953,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12813,43 +13003,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -12894,58 +13084,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -12970,23 +13160,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="81"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13012,7 +13202,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13043,7 +13233,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13072,7 +13262,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13101,7 +13291,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13130,7 +13320,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13159,7 +13349,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13188,7 +13378,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13219,7 +13409,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13248,7 +13438,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13277,7 +13467,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13306,7 +13496,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14537,13 +14727,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14555,6 +14738,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
